--- a/biology/Botanique/Gastrodieae/Gastrodieae.xlsx
+++ b/biology/Botanique/Gastrodieae/Gastrodieae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La tribu des Gastrodieae est une tribu de la sous-famille des Epidendroideae, dans la famille des Orchidaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des orchidées mycotrophes (mycorhizes sur les racines) et dépourvues de chlorophylle.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des sous-tribus et des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon le NCBI[1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon le NCBI
 Gastrodia R.Br. 1810.
 Huttonaea Harv. 1863. (sous-famille des Orchidoideae, tribu des Diseae selon la classification APG II)
 Selon la Classification APG II Chase et al. 2003.
@@ -553,7 +569,7 @@
 Didymoplexiella Garay 1954.
 Gastrodia R.Br. 1810.
 Neoclemensia Carr 1935.
-Selon la Classification APG III[2]. Pridgeon, P.J.Cribb, Chase. (ouvrage publié en 2005.)
+Selon la Classification APG III. Pridgeon, P.J.Cribb, Chase. (ouvrage publié en 2005.)
 Les cinq genres cités dans la classification APG II.
 Uleiorchis Hoehne 1944.</t>
         </is>
